--- a/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
+++ b/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630c9287b3bb8d93/03_Techniker Schule/Techniker Arbeit/Kunden-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630c9287b3bb8d93/03_Techniker Schule/Techniker Arbeit/WebexProv/Kunden-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{2E292E0D-B373-416E-ABF7-3B55EED93FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5369B692-7127-B44E-855B-33556C3E4116}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{2E292E0D-B373-416E-ABF7-3B55EED93FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{56239893-6FC6-3B46-BA58-53F9130FB2B5}"/>
   <bookViews>
-    <workbookView xWindow="40100" yWindow="1260" windowWidth="24260" windowHeight="14340" xr2:uid="{3506BBAA-2EB0-3649-9FB5-A30459E31741}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{3506BBAA-2EB0-3649-9FB5-A30459E31741}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -97,20 +97,839 @@
     <t>Bla</t>
   </si>
   <si>
-    <t xml:space="preserve">Bla </t>
-  </si>
-  <si>
     <t>bla@mpludra.de</t>
   </si>
   <si>
     <t>+49171304534</t>
+  </si>
+  <si>
+    <t>Bla1</t>
+  </si>
+  <si>
+    <t>Bla2</t>
+  </si>
+  <si>
+    <t>Bla3</t>
+  </si>
+  <si>
+    <t>Bla4</t>
+  </si>
+  <si>
+    <t>Bla5</t>
+  </si>
+  <si>
+    <t>Bla6</t>
+  </si>
+  <si>
+    <t>Bla7</t>
+  </si>
+  <si>
+    <t>Bla8</t>
+  </si>
+  <si>
+    <t>Bla9</t>
+  </si>
+  <si>
+    <t>Bla10</t>
+  </si>
+  <si>
+    <t>Bla11</t>
+  </si>
+  <si>
+    <t>Bla12</t>
+  </si>
+  <si>
+    <t>Bla13</t>
+  </si>
+  <si>
+    <t>Bla14</t>
+  </si>
+  <si>
+    <t>Bla15</t>
+  </si>
+  <si>
+    <t>Bla16</t>
+  </si>
+  <si>
+    <t>Bla17</t>
+  </si>
+  <si>
+    <t>Bla18</t>
+  </si>
+  <si>
+    <t>Bla19</t>
+  </si>
+  <si>
+    <t>Bla20</t>
+  </si>
+  <si>
+    <t>Bla21</t>
+  </si>
+  <si>
+    <t>Bla22</t>
+  </si>
+  <si>
+    <t>Bla23</t>
+  </si>
+  <si>
+    <t>Bla24</t>
+  </si>
+  <si>
+    <t>Bla25</t>
+  </si>
+  <si>
+    <t>Bla26</t>
+  </si>
+  <si>
+    <t>Bla27</t>
+  </si>
+  <si>
+    <t>Bla28</t>
+  </si>
+  <si>
+    <t>Bla29</t>
+  </si>
+  <si>
+    <t>Bla30</t>
+  </si>
+  <si>
+    <t>Bla31</t>
+  </si>
+  <si>
+    <t>Bla32</t>
+  </si>
+  <si>
+    <t>Bla33</t>
+  </si>
+  <si>
+    <t>Bla34</t>
+  </si>
+  <si>
+    <t>Bla35</t>
+  </si>
+  <si>
+    <t>Bla36</t>
+  </si>
+  <si>
+    <t>Bla37</t>
+  </si>
+  <si>
+    <t>Bla38</t>
+  </si>
+  <si>
+    <t>Bla39</t>
+  </si>
+  <si>
+    <t>Bla40</t>
+  </si>
+  <si>
+    <t>Bla41</t>
+  </si>
+  <si>
+    <t>Bla42</t>
+  </si>
+  <si>
+    <t>Bla43</t>
+  </si>
+  <si>
+    <t>Bla44</t>
+  </si>
+  <si>
+    <t>Bla45</t>
+  </si>
+  <si>
+    <t>Bla46</t>
+  </si>
+  <si>
+    <t>Bla47</t>
+  </si>
+  <si>
+    <t>Bla48</t>
+  </si>
+  <si>
+    <t>Bla49</t>
+  </si>
+  <si>
+    <t>Bla50</t>
+  </si>
+  <si>
+    <t>Bla51</t>
+  </si>
+  <si>
+    <t>Bla52</t>
+  </si>
+  <si>
+    <t>Bla53</t>
+  </si>
+  <si>
+    <t>Bla54</t>
+  </si>
+  <si>
+    <t>Bla55</t>
+  </si>
+  <si>
+    <t>Bla56</t>
+  </si>
+  <si>
+    <t>Bla57</t>
+  </si>
+  <si>
+    <t>Bla58</t>
+  </si>
+  <si>
+    <t>Bla59</t>
+  </si>
+  <si>
+    <t>Bla60</t>
+  </si>
+  <si>
+    <t>Bla61</t>
+  </si>
+  <si>
+    <t>Bla62</t>
+  </si>
+  <si>
+    <t>Bla63</t>
+  </si>
+  <si>
+    <t>Bla64</t>
+  </si>
+  <si>
+    <t>Bla65</t>
+  </si>
+  <si>
+    <t>Bla66</t>
+  </si>
+  <si>
+    <t>Bla67</t>
+  </si>
+  <si>
+    <t>Bla68</t>
+  </si>
+  <si>
+    <t>Bla69</t>
+  </si>
+  <si>
+    <t>Bla70</t>
+  </si>
+  <si>
+    <t>Bla71</t>
+  </si>
+  <si>
+    <t>Bla72</t>
+  </si>
+  <si>
+    <t>Bla73</t>
+  </si>
+  <si>
+    <t>Bla74</t>
+  </si>
+  <si>
+    <t>Bla75</t>
+  </si>
+  <si>
+    <t>Bla76</t>
+  </si>
+  <si>
+    <t>Bla77</t>
+  </si>
+  <si>
+    <t>Bla78</t>
+  </si>
+  <si>
+    <t>Bla79</t>
+  </si>
+  <si>
+    <t>Bla80</t>
+  </si>
+  <si>
+    <t>Bla81</t>
+  </si>
+  <si>
+    <t>Bla82</t>
+  </si>
+  <si>
+    <t>Bla83</t>
+  </si>
+  <si>
+    <t>Bla84</t>
+  </si>
+  <si>
+    <t>Bla85</t>
+  </si>
+  <si>
+    <t>Bla86</t>
+  </si>
+  <si>
+    <t>Bla87</t>
+  </si>
+  <si>
+    <t>Bla88</t>
+  </si>
+  <si>
+    <t>Bla89</t>
+  </si>
+  <si>
+    <t>Bla90</t>
+  </si>
+  <si>
+    <t>Bla91</t>
+  </si>
+  <si>
+    <t>Bla92</t>
+  </si>
+  <si>
+    <t>Bla93</t>
+  </si>
+  <si>
+    <t>Bla94</t>
+  </si>
+  <si>
+    <t>Bla95</t>
+  </si>
+  <si>
+    <t>Bla96</t>
+  </si>
+  <si>
+    <t>Bla97</t>
+  </si>
+  <si>
+    <t>Bla98</t>
+  </si>
+  <si>
+    <t>Bla99</t>
+  </si>
+  <si>
+    <t>Bla100</t>
+  </si>
+  <si>
+    <t>Bla101</t>
+  </si>
+  <si>
+    <t>Bla102</t>
+  </si>
+  <si>
+    <t>Bla103</t>
+  </si>
+  <si>
+    <t>Bla104</t>
+  </si>
+  <si>
+    <t>Bla105</t>
+  </si>
+  <si>
+    <t>Bla106</t>
+  </si>
+  <si>
+    <t>Bla107</t>
+  </si>
+  <si>
+    <t>Bla108</t>
+  </si>
+  <si>
+    <t>Bla109</t>
+  </si>
+  <si>
+    <t>Bla110</t>
+  </si>
+  <si>
+    <t>Bla111</t>
+  </si>
+  <si>
+    <t>Bla112</t>
+  </si>
+  <si>
+    <t>Bla113</t>
+  </si>
+  <si>
+    <t>Bla114</t>
+  </si>
+  <si>
+    <t>Bla115</t>
+  </si>
+  <si>
+    <t>Bla116</t>
+  </si>
+  <si>
+    <t>Bla117</t>
+  </si>
+  <si>
+    <t>Bla118</t>
+  </si>
+  <si>
+    <t>Bla119</t>
+  </si>
+  <si>
+    <t>Bla120</t>
+  </si>
+  <si>
+    <t>Bla121</t>
+  </si>
+  <si>
+    <t>Bla122</t>
+  </si>
+  <si>
+    <t>Bla123</t>
+  </si>
+  <si>
+    <t>Bla124</t>
+  </si>
+  <si>
+    <t>Bla125</t>
+  </si>
+  <si>
+    <t>Bla126</t>
+  </si>
+  <si>
+    <t>Bla127</t>
+  </si>
+  <si>
+    <t>Bla128</t>
+  </si>
+  <si>
+    <t>Bla129</t>
+  </si>
+  <si>
+    <t>Bla130</t>
+  </si>
+  <si>
+    <t>Bla131</t>
+  </si>
+  <si>
+    <t>Bla132</t>
+  </si>
+  <si>
+    <t>Bla133</t>
+  </si>
+  <si>
+    <t>Bla134</t>
+  </si>
+  <si>
+    <t>Bla135</t>
+  </si>
+  <si>
+    <t>Bla136</t>
+  </si>
+  <si>
+    <t>Bla137</t>
+  </si>
+  <si>
+    <t>Blala1</t>
+  </si>
+  <si>
+    <t>Blala2</t>
+  </si>
+  <si>
+    <t>Blala3</t>
+  </si>
+  <si>
+    <t>Blala4</t>
+  </si>
+  <si>
+    <t>Blala5</t>
+  </si>
+  <si>
+    <t>Blala6</t>
+  </si>
+  <si>
+    <t>Blala7</t>
+  </si>
+  <si>
+    <t>Blala8</t>
+  </si>
+  <si>
+    <t>Blala9</t>
+  </si>
+  <si>
+    <t>Blala10</t>
+  </si>
+  <si>
+    <t>Blala11</t>
+  </si>
+  <si>
+    <t>Blala12</t>
+  </si>
+  <si>
+    <t>Blala13</t>
+  </si>
+  <si>
+    <t>Blala14</t>
+  </si>
+  <si>
+    <t>Blala15</t>
+  </si>
+  <si>
+    <t>Blala16</t>
+  </si>
+  <si>
+    <t>Blala17</t>
+  </si>
+  <si>
+    <t>Blala18</t>
+  </si>
+  <si>
+    <t>Blala19</t>
+  </si>
+  <si>
+    <t>Blala20</t>
+  </si>
+  <si>
+    <t>Blala21</t>
+  </si>
+  <si>
+    <t>Blala22</t>
+  </si>
+  <si>
+    <t>Blala23</t>
+  </si>
+  <si>
+    <t>Blala24</t>
+  </si>
+  <si>
+    <t>Blala25</t>
+  </si>
+  <si>
+    <t>Blala26</t>
+  </si>
+  <si>
+    <t>Blala27</t>
+  </si>
+  <si>
+    <t>Blala28</t>
+  </si>
+  <si>
+    <t>Blala29</t>
+  </si>
+  <si>
+    <t>Blala30</t>
+  </si>
+  <si>
+    <t>Blala31</t>
+  </si>
+  <si>
+    <t>Blala32</t>
+  </si>
+  <si>
+    <t>Blala33</t>
+  </si>
+  <si>
+    <t>Blala34</t>
+  </si>
+  <si>
+    <t>Blala35</t>
+  </si>
+  <si>
+    <t>Blala36</t>
+  </si>
+  <si>
+    <t>Blala37</t>
+  </si>
+  <si>
+    <t>Blala38</t>
+  </si>
+  <si>
+    <t>Blala39</t>
+  </si>
+  <si>
+    <t>Blala40</t>
+  </si>
+  <si>
+    <t>Blala41</t>
+  </si>
+  <si>
+    <t>Blala42</t>
+  </si>
+  <si>
+    <t>Blala43</t>
+  </si>
+  <si>
+    <t>Blala44</t>
+  </si>
+  <si>
+    <t>Blala45</t>
+  </si>
+  <si>
+    <t>Blala46</t>
+  </si>
+  <si>
+    <t>Blala47</t>
+  </si>
+  <si>
+    <t>Blala48</t>
+  </si>
+  <si>
+    <t>Blala49</t>
+  </si>
+  <si>
+    <t>Blala50</t>
+  </si>
+  <si>
+    <t>Blala51</t>
+  </si>
+  <si>
+    <t>Blala52</t>
+  </si>
+  <si>
+    <t>Blala53</t>
+  </si>
+  <si>
+    <t>Blala54</t>
+  </si>
+  <si>
+    <t>Blala55</t>
+  </si>
+  <si>
+    <t>Blala56</t>
+  </si>
+  <si>
+    <t>Blala57</t>
+  </si>
+  <si>
+    <t>Blala58</t>
+  </si>
+  <si>
+    <t>Blala59</t>
+  </si>
+  <si>
+    <t>Blala60</t>
+  </si>
+  <si>
+    <t>Blala61</t>
+  </si>
+  <si>
+    <t>Blala62</t>
+  </si>
+  <si>
+    <t>Blala63</t>
+  </si>
+  <si>
+    <t>Blala64</t>
+  </si>
+  <si>
+    <t>Blala65</t>
+  </si>
+  <si>
+    <t>Blala66</t>
+  </si>
+  <si>
+    <t>Blala67</t>
+  </si>
+  <si>
+    <t>Blala68</t>
+  </si>
+  <si>
+    <t>Blala69</t>
+  </si>
+  <si>
+    <t>Blala70</t>
+  </si>
+  <si>
+    <t>Blala71</t>
+  </si>
+  <si>
+    <t>Blala72</t>
+  </si>
+  <si>
+    <t>Blala73</t>
+  </si>
+  <si>
+    <t>Blala74</t>
+  </si>
+  <si>
+    <t>Blala75</t>
+  </si>
+  <si>
+    <t>Blala76</t>
+  </si>
+  <si>
+    <t>Blala77</t>
+  </si>
+  <si>
+    <t>Blala78</t>
+  </si>
+  <si>
+    <t>Blala79</t>
+  </si>
+  <si>
+    <t>Blala80</t>
+  </si>
+  <si>
+    <t>Blala81</t>
+  </si>
+  <si>
+    <t>Blala82</t>
+  </si>
+  <si>
+    <t>Blala83</t>
+  </si>
+  <si>
+    <t>Blala84</t>
+  </si>
+  <si>
+    <t>Blala85</t>
+  </si>
+  <si>
+    <t>Blala86</t>
+  </si>
+  <si>
+    <t>Blala87</t>
+  </si>
+  <si>
+    <t>Blala88</t>
+  </si>
+  <si>
+    <t>Blala89</t>
+  </si>
+  <si>
+    <t>Blala90</t>
+  </si>
+  <si>
+    <t>Blala91</t>
+  </si>
+  <si>
+    <t>Blala92</t>
+  </si>
+  <si>
+    <t>Blala93</t>
+  </si>
+  <si>
+    <t>Blala94</t>
+  </si>
+  <si>
+    <t>Blala95</t>
+  </si>
+  <si>
+    <t>Blala96</t>
+  </si>
+  <si>
+    <t>Blala97</t>
+  </si>
+  <si>
+    <t>Blala98</t>
+  </si>
+  <si>
+    <t>Blala99</t>
+  </si>
+  <si>
+    <t>Blala100</t>
+  </si>
+  <si>
+    <t>Blala101</t>
+  </si>
+  <si>
+    <t>Blala102</t>
+  </si>
+  <si>
+    <t>Blala103</t>
+  </si>
+  <si>
+    <t>Blala104</t>
+  </si>
+  <si>
+    <t>Blala105</t>
+  </si>
+  <si>
+    <t>Blala106</t>
+  </si>
+  <si>
+    <t>Blala107</t>
+  </si>
+  <si>
+    <t>Blala108</t>
+  </si>
+  <si>
+    <t>Blala109</t>
+  </si>
+  <si>
+    <t>Blala110</t>
+  </si>
+  <si>
+    <t>Blala111</t>
+  </si>
+  <si>
+    <t>Blala112</t>
+  </si>
+  <si>
+    <t>Blala113</t>
+  </si>
+  <si>
+    <t>Blala114</t>
+  </si>
+  <si>
+    <t>Blala115</t>
+  </si>
+  <si>
+    <t>Blala116</t>
+  </si>
+  <si>
+    <t>Blala117</t>
+  </si>
+  <si>
+    <t>Blala118</t>
+  </si>
+  <si>
+    <t>Blala119</t>
+  </si>
+  <si>
+    <t>Blala120</t>
+  </si>
+  <si>
+    <t>Blala121</t>
+  </si>
+  <si>
+    <t>Blala122</t>
+  </si>
+  <si>
+    <t>Blala123</t>
+  </si>
+  <si>
+    <t>Blala124</t>
+  </si>
+  <si>
+    <t>Blala125</t>
+  </si>
+  <si>
+    <t>Blala126</t>
+  </si>
+  <si>
+    <t>Blala127</t>
+  </si>
+  <si>
+    <t>Blala128</t>
+  </si>
+  <si>
+    <t>Blala129</t>
+  </si>
+  <si>
+    <t>Blala130</t>
+  </si>
+  <si>
+    <t>Blala131</t>
+  </si>
+  <si>
+    <t>Blala132</t>
+  </si>
+  <si>
+    <t>Blala133</t>
+  </si>
+  <si>
+    <t>Blala134</t>
+  </si>
+  <si>
+    <t>Blala135</t>
+  </si>
+  <si>
+    <t>Blala136</t>
+  </si>
+  <si>
+    <t>Blala137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +949,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3540F1-6548-7943-9FC4-7B110902D3A7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,16 +1412,16 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4">
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>8</v>
@@ -608,13 +1433,35 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="str">
+        <f>A5&amp;"@mpludra.de"</f>
+        <v>Bla1@mpludra.de</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C69" si="0">A6&amp;"@mpludra.de"</f>
+        <v>Bla2@mpludra.de</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -622,6 +1469,16 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla3@mpludra.de</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -629,6 +1486,16 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla4@mpludra.de</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -636,6 +1503,16 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla5@mpludra.de</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -643,6 +1520,16 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla6@mpludra.de</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -650,6 +1537,16 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla7@mpludra.de</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -657,6 +1554,16 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla8@mpludra.de</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -664,6 +1571,16 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla9@mpludra.de</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -671,6 +1588,16 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla10@mpludra.de</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -678,6 +1605,16 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla11@mpludra.de</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -685,177 +1622,1640 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla12@mpludra.de</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla13@mpludra.de</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla14@mpludra.de</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla15@mpludra.de</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla16@mpludra.de</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla17@mpludra.de</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla18@mpludra.de</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla19@mpludra.de</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla20@mpludra.de</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla21@mpludra.de</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla22@mpludra.de</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla23@mpludra.de</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla24@mpludra.de</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla25@mpludra.de</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla26@mpludra.de</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla27@mpludra.de</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla28@mpludra.de</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla29@mpludra.de</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla30@mpludra.de</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla31@mpludra.de</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla32@mpludra.de</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla33@mpludra.de</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla34@mpludra.de</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla35@mpludra.de</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla36@mpludra.de</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla37@mpludra.de</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla38@mpludra.de</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla39@mpludra.de</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla40@mpludra.de</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla41@mpludra.de</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla42@mpludra.de</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla43@mpludra.de</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla44@mpludra.de</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla45@mpludra.de</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla46@mpludra.de</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla47@mpludra.de</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla48@mpludra.de</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla49@mpludra.de</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla50@mpludra.de</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla51@mpludra.de</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla52@mpludra.de</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla53@mpludra.de</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla54@mpludra.de</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla55@mpludra.de</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla56@mpludra.de</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla57@mpludra.de</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla58@mpludra.de</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla59@mpludra.de</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla60@mpludra.de</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla61@mpludra.de</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla62@mpludra.de</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla63@mpludra.de</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla64@mpludra.de</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="0"/>
+        <v>Bla65@mpludra.de</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" ref="C70:C133" si="1">A70&amp;"@mpludra.de"</f>
+        <v>Bla66@mpludra.de</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla67@mpludra.de</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla68@mpludra.de</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla69@mpludra.de</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla70@mpludra.de</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla71@mpludra.de</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla72@mpludra.de</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla73@mpludra.de</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla74@mpludra.de</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla75@mpludra.de</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla76@mpludra.de</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla77@mpludra.de</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla78@mpludra.de</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla79@mpludra.de</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla80@mpludra.de</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla81@mpludra.de</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla82@mpludra.de</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla83@mpludra.de</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla84@mpludra.de</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla85@mpludra.de</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla86@mpludra.de</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla87@mpludra.de</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla88@mpludra.de</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla89@mpludra.de</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla90@mpludra.de</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla91@mpludra.de</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla92@mpludra.de</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla93@mpludra.de</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla94@mpludra.de</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla95@mpludra.de</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla96@mpludra.de</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla97@mpludra.de</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla98@mpludra.de</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla99@mpludra.de</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla100@mpludra.de</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla101@mpludra.de</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla102@mpludra.de</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla103@mpludra.de</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla104@mpludra.de</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla105@mpludra.de</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla106@mpludra.de</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla107@mpludra.de</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla108@mpludra.de</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla109@mpludra.de</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla110@mpludra.de</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla111@mpludra.de</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla112@mpludra.de</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla113@mpludra.de</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla114@mpludra.de</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla115@mpludra.de</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla116@mpludra.de</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>275</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla117@mpludra.de</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla118@mpludra.de</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla119@mpludra.de</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla120@mpludra.de</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla121@mpludra.de</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla122@mpludra.de</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla123@mpludra.de</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>145</v>
+      </c>
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla124@mpludra.de</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla125@mpludra.de</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>147</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla126@mpludra.de</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla127@mpludra.de</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla128@mpludra.de</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="1"/>
+        <v>Bla129@mpludra.de</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ref="C134:C141" si="2">A134&amp;"@mpludra.de"</f>
+        <v>Bla130@mpludra.de</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla131@mpludra.de</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>153</v>
+      </c>
+      <c r="B136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla132@mpludra.de</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla133@mpludra.de</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla134@mpludra.de</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla135@mpludra.de</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>157</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla136@mpludra.de</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>Bla137@mpludra.de</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1B47DF7F-1066-4387-B1D0-34547DE1F0AA}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D762FB3E-B854-4144-8312-5FE71228982D}"/>

--- a/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
+++ b/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630c9287b3bb8d93/03_Techniker Schule/Techniker Arbeit/WebexProv/Kunden-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{2E292E0D-B373-416E-ABF7-3B55EED93FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F9DDBE1-7E95-134B-BD98-DF4673ED7E28}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{2E292E0D-B373-416E-ABF7-3B55EED93FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA08AF2F-61E6-C047-B854-E5D7F2F32356}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{3506BBAA-2EB0-3649-9FB5-A30459E31741}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -46,15 +46,6 @@
     <t>E-Mail</t>
   </si>
   <si>
-    <t>Durchwahl</t>
-  </si>
-  <si>
-    <t>E.164</t>
-  </si>
-  <si>
-    <t>Endgerät</t>
-  </si>
-  <si>
     <t>Endgeräte</t>
   </si>
   <si>
@@ -64,49 +55,19 @@
     <t>x</t>
   </si>
   <si>
-    <t>+497117828355</t>
-  </si>
-  <si>
-    <t>Dampf</t>
-  </si>
-  <si>
     <t>Marcel</t>
   </si>
   <si>
     <t>Pludra</t>
   </si>
   <si>
-    <t>mpludra@mpludra.de</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>hdampf@mpludra.de</t>
-  </si>
-  <si>
-    <t>+497117828356</t>
-  </si>
-  <si>
     <t>Messaging</t>
   </si>
   <si>
-    <t>Calling</t>
-  </si>
-  <si>
-    <t>Bla</t>
-  </si>
-  <si>
-    <t>bla@mpludra.de</t>
-  </si>
-  <si>
-    <t>+49171304534</t>
-  </si>
-  <si>
-    <t>Bla1</t>
-  </si>
-  <si>
-    <t>Blala1</t>
+    <t>Bla10@mpludra.de</t>
+  </si>
+  <si>
+    <t>Kalender (Exchange)</t>
   </si>
 </sst>
 </file>
@@ -165,10 +126,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,389 +459,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3540F1-6548-7943-9FC4-7B110902D3A7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="4" max="5" width="13" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>55</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>54</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="str">
-        <f>A5&amp;"@mpludra.de"</f>
-        <v>Bla1@mpludra.de</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{1B47DF7F-1066-4387-B1D0-34547DE1F0AA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D762FB3E-B854-4144-8312-5FE71228982D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{1E13371E-91C1-CB4D-ACA8-0AB7EC88FA26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -902,7 +690,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
+++ b/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630c9287b3bb8d93/03_Techniker Schule/Techniker Arbeit/WebexProv/Kunden-Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Documents\WebexProv\Kunden-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{2E292E0D-B373-416E-ABF7-3B55EED93FF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA08AF2F-61E6-C047-B854-E5D7F2F32356}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{3506BBAA-2EB0-3649-9FB5-A30459E31741}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="19485"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -68,12 +67,90 @@
   </si>
   <si>
     <t>Kalender (Exchange)</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -458,23 +535,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3540F1-6548-7943-9FC4-7B110902D3A7}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -495,7 +572,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -516,199 +593,641 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>test1</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>A3&amp;"@mpludra.de"</f>
+        <v>test1@mpludra.de</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B28" si="0">A4</f>
+        <v>test2</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" ref="C4:C28" si="1">A4&amp;"@mpludra.de"</f>
+        <v>test2@mpludra.de</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>test3</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test3@mpludra.de</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>test4</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test4@mpludra.de</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>test5</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test5@mpludra.de</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>test6</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test6@mpludra.de</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>test7</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test7@mpludra.de</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>test8</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test8@mpludra.de</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>test9</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test9@mpludra.de</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>test10</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test10@mpludra.de</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>test11</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test11@mpludra.de</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>test12</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test12@mpludra.de</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>test13</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test13@mpludra.de</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>test14</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test14@mpludra.de</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>test15</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test15@mpludra.de</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>test16</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test16@mpludra.de</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>test17</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test17@mpludra.de</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>test18</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test18@mpludra.de</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>test19</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test19@mpludra.de</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>test20</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test20@mpludra.de</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>test21</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test21@mpludra.de</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>test22</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test22@mpludra.de</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>test23</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test23@mpludra.de</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>test24</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test24@mpludra.de</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>test25</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test25@mpludra.de</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>test26</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>test26@mpludra.de</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1B47DF7F-1066-4387-B1D0-34547DE1F0AA}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523ED8D9-46D2-0B4D-8E3C-559EF5634E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8841</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8851</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8845</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8865</v>
       </c>

--- a/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
+++ b/Kunden-Excel/Kunden-Excel-DRAFT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/630c9287b3bb8d93/03_Techniker Schule/Techniker Arbeit/WebexProv/Kunden-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_06EDFCBA8C9CA40E199A3724E292CC101813D441" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22583636-228F-7642-BDC2-128CBF8C40D6}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_06EDFCBA8C9CA40E199A3724E292CC101813D441" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7B5F7BC3-7907-F045-8561-A73E76C890D9}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="1820" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Nachname</t>
   </si>
@@ -61,13 +58,61 @@
     <t>Kalender (Exchange)</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>Neu1</t>
+  </si>
+  <si>
+    <t>Neu2</t>
+  </si>
+  <si>
+    <t>Neu3</t>
+  </si>
+  <si>
+    <t>Neu4</t>
+  </si>
+  <si>
+    <t>Neu5</t>
+  </si>
+  <si>
+    <t>Neu6</t>
+  </si>
+  <si>
+    <t>Neu7</t>
+  </si>
+  <si>
+    <t>Neu8</t>
+  </si>
+  <si>
+    <t>Neu9</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>bla1</t>
+  </si>
+  <si>
+    <t>bla2</t>
+  </si>
+  <si>
+    <t>bla3</t>
+  </si>
+  <si>
+    <t>bla4</t>
+  </si>
+  <si>
+    <t>bla5</t>
+  </si>
+  <si>
+    <t>bla6</t>
+  </si>
+  <si>
+    <t>bla7</t>
+  </si>
+  <si>
+    <t>bla8</t>
+  </si>
+  <si>
+    <t>neu</t>
   </si>
 </sst>
 </file>
@@ -459,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,179 +521,479 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="str">
-        <f>A2</f>
-        <v>test1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>A2&amp;"@mpludra.de"</f>
-        <v>test1@mpludra.de</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>Neu1@mpludra.de</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B4" si="0">A3</f>
-        <v>test2</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C4" si="1">A3&amp;"@mpludra.de"</f>
-        <v>test2@mpludra.de</v>
+        <f t="shared" ref="C3:C10" si="0">A3&amp;"@mpludra.de"</f>
+        <v>Neu2@mpludra.de</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu3@mpludra.de</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Neu1</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Neu1@mpludra.de</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="1"/>
+        <v>Neu4@mpludra.de</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu5@mpludra.de</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu6@mpludra.de</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu7@mpludra.de</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu9@mpludra.de</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Neu8@mpludra.de</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -728,20 +1073,6 @@
     <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -763,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
